--- a/data/trans_orig/IP43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP43-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A34998-F3C7-48B0-8B8C-FD6ED20BCDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BBBD5B-33CE-48EE-B490-FA4BB70B5DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F0FEB47-879C-426B-A0AB-51FD5206FA7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E34ECA04-710D-4901-936D-85B50A2EF096}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -94,28 +94,28 @@
     <t>22,68%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +124,28 @@
     <t>77,32%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,319 +166,319 @@
     <t>23,86%</t>
   </si>
   <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -490,55 +490,55 @@
     <t>10,07%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -550,55 +550,55 @@
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -613,73 +613,73 @@
     <t>12,73%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>11,88%</t>
@@ -688,31 +688,31 @@
     <t>10,56%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>13,31%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>86,69%</t>
   </si>
   <si>
     <t>89,44%</t>
@@ -1202,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE7FCB-3A3B-407D-9496-AD967EC3EE7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4F9CBE-B161-4A3E-BC34-4DBC71067046}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2364,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77564967-F985-4F73-B20E-9EDC3E3F3E03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4343A-DED6-43B5-8B52-8255E53EE3EC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3526,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E9924-77D9-4492-86AC-37D8E80EE45D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1068A919-6BF7-4F29-9563-BF41D5CC527C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP43-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BBBD5B-33CE-48EE-B490-FA4BB70B5DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01250B1E-CA71-47FF-9B1A-F8592BB54C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E34ECA04-710D-4901-936D-85B50A2EF096}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8D526746-5C8F-4E4D-BD68-AA24A3F745DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="249">
   <si>
     <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2012 (Tasa respuesta: 99,09%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,73 +79,73 @@
     <t>0%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -154,568 +154,562 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>91,15%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2023 (Tasa respuesta: 100,0%)</t>
@@ -724,43 +718,43 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,26%</t>
+  </si>
+  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
     <t>99,15%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>99,64%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1202,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4F9CBE-B161-4A3E-BC34-4DBC71067046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA11B6A-3E06-4E9C-B5FA-9CE35D34F283}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1371,10 +1365,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>32942</v>
+        <v>28120</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1386,10 +1380,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I5" s="7">
-        <v>28120</v>
+        <v>32942</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1422,10 +1416,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7">
-        <v>112301</v>
+        <v>118014</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1437,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I6" s="7">
-        <v>118014</v>
+        <v>112301</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1473,25 +1467,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146134</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>206</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145243</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>218</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146134</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1577,10 +1571,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7">
-        <v>63358</v>
+        <v>54955</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -1592,10 +1586,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>54955</v>
+        <v>63358</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -1628,10 +1622,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D10" s="7">
-        <v>202228</v>
+        <v>177620</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1643,10 +1637,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="I10" s="7">
-        <v>177620</v>
+        <v>202228</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1679,25 +1673,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>335</v>
+      </c>
+      <c r="D11" s="7">
+        <v>232575</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>369</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>265586</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>335</v>
-      </c>
-      <c r="I11" s="7">
-        <v>232575</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1783,10 +1777,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>37517</v>
+        <v>40895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -1798,10 +1792,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>40895</v>
+        <v>37517</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -1834,10 +1828,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>120396</v>
+        <v>115306</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -1849,10 +1843,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>115306</v>
+        <v>120396</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -1885,25 +1879,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7">
+        <v>156201</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>227</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>157913</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>222</v>
-      </c>
-      <c r="I15" s="7">
-        <v>156201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -1989,10 +1983,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>40552</v>
+        <v>36961</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -2004,10 +1998,10 @@
         <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I17" s="7">
-        <v>36961</v>
+        <v>40552</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>88</v>
@@ -2040,10 +2034,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D18" s="7">
-        <v>136910</v>
+        <v>133720</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>94</v>
@@ -2055,10 +2049,10 @@
         <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I18" s="7">
-        <v>133720</v>
+        <v>136910</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>97</v>
@@ -2091,25 +2085,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7">
+        <v>170681</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>261</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>177462</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170681</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2195,10 +2189,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>174370</v>
+        <v>160932</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>106</v>
@@ -2210,10 +2204,10 @@
         <v>108</v>
       </c>
       <c r="H21" s="7">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="I21" s="7">
-        <v>160932</v>
+        <v>174370</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>109</v>
@@ -2246,10 +2240,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>807</v>
+        <v>778</v>
       </c>
       <c r="D22" s="7">
-        <v>571834</v>
+        <v>544658</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>115</v>
@@ -2261,10 +2255,10 @@
         <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="I22" s="7">
-        <v>544658</v>
+        <v>571834</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>118</v>
@@ -2297,25 +2291,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D23" s="7">
+        <v>705590</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1063</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>746204</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I23" s="7">
-        <v>705590</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2364,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4343A-DED6-43B5-8B52-8255E53EE3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001787BD-B90B-4B5E-97E0-3057D7A6E5C1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,10 +2527,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>19195</v>
+        <v>18958</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>129</v>
@@ -2548,10 +2542,10 @@
         <v>131</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>18958</v>
+        <v>19195</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>132</v>
@@ -2584,10 +2578,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7">
-        <v>104969</v>
+        <v>112696</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>138</v>
@@ -2599,10 +2593,10 @@
         <v>140</v>
       </c>
       <c r="H6" s="7">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="I6" s="7">
-        <v>112696</v>
+        <v>104969</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>141</v>
@@ -2635,25 +2629,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2739,10 +2733,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>25985</v>
+        <v>26993</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>149</v>
@@ -2754,10 +2748,10 @@
         <v>151</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7">
-        <v>26993</v>
+        <v>25985</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>152</v>
@@ -2790,10 +2784,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>232076</v>
+        <v>183524</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>158</v>
@@ -2805,10 +2799,10 @@
         <v>160</v>
       </c>
       <c r="H10" s="7">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="I10" s="7">
-        <v>183524</v>
+        <v>232076</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>161</v>
@@ -2841,25 +2835,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2906,7 +2900,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2921,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2945,10 +2939,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>17993</v>
+        <v>17304</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>169</v>
@@ -2960,10 +2954,10 @@
         <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>17304</v>
+        <v>17993</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>172</v>
@@ -2996,10 +2990,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D14" s="7">
-        <v>170579</v>
+        <v>171595</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>178</v>
@@ -3011,10 +3005,10 @@
         <v>180</v>
       </c>
       <c r="H14" s="7">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>171595</v>
+        <v>170579</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>181</v>
@@ -3047,25 +3041,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3151,34 +3145,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23564</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
         <v>30</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22160</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23564</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -3187,13 +3181,13 @@
         <v>45724</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,34 +3196,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>210</v>
+      </c>
+      <c r="D18" s="7">
+        <v>149737</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="7">
         <v>205</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>151888</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H18" s="7">
-        <v>210</v>
-      </c>
-      <c r="I18" s="7">
-        <v>149737</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -3238,13 +3232,13 @@
         <v>301624</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,25 +3247,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3318,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3333,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3357,34 +3351,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>139</v>
+      </c>
+      <c r="D21" s="7">
+        <v>86819</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="7">
         <v>124</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>85333</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="7">
-        <v>139</v>
-      </c>
-      <c r="I21" s="7">
-        <v>86819</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>263</v>
@@ -3393,13 +3387,13 @@
         <v>172152</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,34 +3402,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>922</v>
+      </c>
+      <c r="D22" s="7">
+        <v>617552</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="7">
         <v>941</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>659511</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="7">
-        <v>922</v>
-      </c>
-      <c r="I22" s="7">
-        <v>617552</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>1863</v>
@@ -3444,13 +3438,13 @@
         <v>1277063</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,25 +3453,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D23" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1065</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3526,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1068A919-6BF7-4F29-9563-BF41D5CC527C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEF55DA-DE71-4258-AE08-117E1DAC9EBA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,31 +3638,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>109</v>
+      </c>
+      <c r="D4" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7">
         <v>116</v>
       </c>
-      <c r="D4" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>61444</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7">
-        <v>109</v>
-      </c>
-      <c r="I4" s="7">
-        <v>57369</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3677,13 +3671,13 @@
         <v>225</v>
       </c>
       <c r="N4" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3707,37 +3701,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,37 +3752,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,25 +3791,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3830,7 +3824,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3850,31 +3844,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>258</v>
+      </c>
+      <c r="D8" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
         <v>276</v>
       </c>
-      <c r="D8" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>258</v>
-      </c>
       <c r="I8" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3883,13 +3877,13 @@
         <v>534</v>
       </c>
       <c r="N8" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3913,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3928,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3964,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3979,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4003,25 +3997,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4036,7 +4030,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4056,31 +4050,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4089,13 +4083,13 @@
         <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4119,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4134,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4170,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4185,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4209,25 +4203,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4242,7 +4236,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4265,13 +4259,13 @@
         <v>342</v>
       </c>
       <c r="D16" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4280,13 +4274,13 @@
         <v>342</v>
       </c>
       <c r="I16" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4295,13 +4289,13 @@
         <v>684</v>
       </c>
       <c r="N16" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4325,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4340,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4355,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4370,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4391,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4406,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,7 +4412,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4433,7 +4427,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4448,7 +4442,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4468,31 +4462,31 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>943</v>
+      </c>
+      <c r="D20" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7">
         <v>977</v>
       </c>
-      <c r="D20" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="7">
-        <v>943</v>
-      </c>
       <c r="I20" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -4501,13 +4495,13 @@
         <v>1920</v>
       </c>
       <c r="N20" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -4531,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4546,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4561,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4597,7 +4591,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4612,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,25 +4615,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>943</v>
+      </c>
+      <c r="D23" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
       <c r="I23" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4654,7 +4648,7 @@
         <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
